--- a/Experiments/220919/output.xlsx
+++ b/Experiments/220919/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/220919/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1F115C6-C630-E04C-830D-CE0C4F3A2280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B2E328-5E11-3943-B11A-B54CD39A61BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16200" xr2:uid="{6470909B-731F-4145-8E38-DB2754F01CC5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>TG</t>
   </si>
@@ -53,6 +53,27 @@
   </si>
   <si>
     <t>Temp2</t>
+  </si>
+  <si>
+    <t>Mal_Rep1</t>
+  </si>
+  <si>
+    <t>Mal_Rep2</t>
+  </si>
+  <si>
+    <t>Mal_Rep3</t>
+  </si>
+  <si>
+    <t>Pyr_Rep1</t>
+  </si>
+  <si>
+    <t>Pyr_Rep2</t>
+  </si>
+  <si>
+    <t>Pyr_Rep3</t>
+  </si>
+  <si>
+    <t>1526.71*</t>
   </si>
 </sst>
 </file>
@@ -404,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF3CF35-9624-6E4C-AE78-FF41C1A6B358}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -422,8 +443,26 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -445,8 +484,17 @@
       <c r="G2">
         <v>532530.19999999995</v>
       </c>
+      <c r="H2">
+        <v>16561.189999999999</v>
+      </c>
+      <c r="I2">
+        <v>22681.4</v>
+      </c>
+      <c r="J2">
+        <v>20666.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -468,8 +516,17 @@
       <c r="G3">
         <v>538263.30000000005</v>
       </c>
+      <c r="H3">
+        <v>19474.259999999998</v>
+      </c>
+      <c r="I3">
+        <v>19057.66</v>
+      </c>
+      <c r="J3">
+        <v>29285.74</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -488,8 +545,17 @@
       <c r="F4">
         <v>646268.30000000005</v>
       </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>29251.75</v>
+      </c>
+      <c r="J4">
+        <v>47346.85</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -511,8 +577,17 @@
       <c r="G5">
         <v>519420.9</v>
       </c>
+      <c r="H5">
+        <v>53409.08</v>
+      </c>
+      <c r="I5">
+        <v>38072.03</v>
+      </c>
+      <c r="J5">
+        <v>17281.150000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -534,8 +609,17 @@
       <c r="G6">
         <v>484979.5</v>
       </c>
+      <c r="H6">
+        <v>18646.38</v>
+      </c>
+      <c r="I6">
+        <v>19529.099999999999</v>
+      </c>
+      <c r="J6">
+        <v>16915.37</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -553,6 +637,15 @@
       </c>
       <c r="F7">
         <v>327324.90000000002</v>
+      </c>
+      <c r="H7">
+        <v>43496.9</v>
+      </c>
+      <c r="I7">
+        <v>18372.21</v>
+      </c>
+      <c r="J7">
+        <v>29364.26</v>
       </c>
     </row>
   </sheetData>
